--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tgfb3-Eng.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H2">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J2">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N2">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O2">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P2">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q2">
-        <v>191.7533984687962</v>
+        <v>315.6467714055394</v>
       </c>
       <c r="R2">
-        <v>1725.780586219166</v>
+        <v>2840.820942649855</v>
       </c>
       <c r="S2">
-        <v>0.01392703817576249</v>
+        <v>0.01437912096778796</v>
       </c>
       <c r="T2">
-        <v>0.0139270381757625</v>
+        <v>0.01437912096778795</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H3">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J3">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>126.9743</v>
       </c>
       <c r="O3">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P3">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q3">
-        <v>54.06651754358889</v>
+        <v>54.06708187381111</v>
       </c>
       <c r="R3">
-        <v>486.5986578923</v>
+        <v>486.6037368642999</v>
       </c>
       <c r="S3">
-        <v>0.003926848023935428</v>
+        <v>0.002462997188841774</v>
       </c>
       <c r="T3">
-        <v>0.003926848023935428</v>
+        <v>0.002462997188841773</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H4">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J4">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N4">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O4">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P4">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q4">
-        <v>11.38868428493911</v>
+        <v>14.805642701982</v>
       </c>
       <c r="R4">
-        <v>102.498158564452</v>
+        <v>133.250784317838</v>
       </c>
       <c r="S4">
-        <v>0.0008271594770919477</v>
+        <v>0.0006744631870291639</v>
       </c>
       <c r="T4">
-        <v>0.0008271594770919478</v>
+        <v>0.0006744631870291638</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.277420333333333</v>
+        <v>1.277433666666667</v>
       </c>
       <c r="H5">
-        <v>3.832261</v>
+        <v>3.832301</v>
       </c>
       <c r="I5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="J5">
-        <v>0.01913942624337555</v>
+        <v>0.01786062203930835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N5">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P5">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q5">
-        <v>6.311179040768557</v>
+        <v>7.552293012705221</v>
       </c>
       <c r="R5">
-        <v>56.800611366917</v>
+        <v>67.97063711434699</v>
       </c>
       <c r="S5">
-        <v>0.0004583805665856764</v>
+        <v>0.0003440406956494608</v>
       </c>
       <c r="T5">
-        <v>0.0004583805665856765</v>
+        <v>0.0003440406956494608</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H6">
         <v>136.341755</v>
       </c>
       <c r="I6">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J6">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N6">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O6">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P6">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q6">
-        <v>6822.08097894428</v>
+        <v>11229.763730332</v>
       </c>
       <c r="R6">
-        <v>61398.72881049852</v>
+        <v>101067.873572988</v>
       </c>
       <c r="S6">
-        <v>0.4954873446342659</v>
+        <v>0.511565920345377</v>
       </c>
       <c r="T6">
-        <v>0.4954873446342661</v>
+        <v>0.511565920345377</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H7">
         <v>136.341755</v>
       </c>
       <c r="I7">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J7">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>126.9743</v>
       </c>
       <c r="O7">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P7">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q7">
         <v>1923.544322432944</v>
@@ -883,10 +883,10 @@
         <v>17311.8989018965</v>
       </c>
       <c r="S7">
-        <v>0.1397069122383987</v>
+        <v>0.08762603962652041</v>
       </c>
       <c r="T7">
-        <v>0.1397069122383988</v>
+        <v>0.08762603962652039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H8">
         <v>136.341755</v>
       </c>
       <c r="I8">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J8">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N8">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O8">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P8">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q8">
-        <v>405.1793973712955</v>
+        <v>526.74028211541</v>
       </c>
       <c r="R8">
-        <v>3646.614576341659</v>
+        <v>4740.66253903869</v>
       </c>
       <c r="S8">
-        <v>0.02942815606024705</v>
+        <v>0.02399537369388507</v>
       </c>
       <c r="T8">
-        <v>0.02942815606024706</v>
+        <v>0.02399537369388507</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.44725166666666</v>
+        <v>45.44725166666667</v>
       </c>
       <c r="H9">
         <v>136.341755</v>
       </c>
       <c r="I9">
-        <v>0.6809303864519871</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="J9">
-        <v>0.6809303864519872</v>
+        <v>0.6354272679079697</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N9">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P9">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q9">
-        <v>224.5351312286928</v>
+        <v>268.6878936770539</v>
       </c>
       <c r="R9">
-        <v>2020.816181058235</v>
+        <v>2418.191043093485</v>
       </c>
       <c r="S9">
-        <v>0.01630797351907541</v>
+        <v>0.01223993424218723</v>
       </c>
       <c r="T9">
-        <v>0.01630797351907542</v>
+        <v>0.01223993424218723</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H10">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J10">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N10">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O10">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P10">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q10">
-        <v>2930.379308134682</v>
+        <v>5920.566323651653</v>
       </c>
       <c r="R10">
-        <v>26373.41377321214</v>
+        <v>53285.09691286488</v>
       </c>
       <c r="S10">
-        <v>0.2128332786784866</v>
+        <v>0.2697082532684024</v>
       </c>
       <c r="T10">
-        <v>0.2128332786784867</v>
+        <v>0.2697082532684024</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H11">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J11">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>126.9743</v>
       </c>
       <c r="O11">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P11">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q11">
-        <v>826.2456130518888</v>
+        <v>1014.132800201945</v>
       </c>
       <c r="R11">
-        <v>7436.210517466999</v>
+        <v>9127.1952018175</v>
       </c>
       <c r="S11">
-        <v>0.06001017081010161</v>
+        <v>0.04619828090295931</v>
       </c>
       <c r="T11">
-        <v>0.06001017081010163</v>
+        <v>0.04619828090295929</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H12">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J12">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N12">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O12">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P12">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q12">
-        <v>174.0421032532311</v>
+        <v>277.70849418495</v>
       </c>
       <c r="R12">
-        <v>1566.37892927908</v>
+        <v>2499.37644766455</v>
       </c>
       <c r="S12">
-        <v>0.01264066783458956</v>
+        <v>0.01265086290566619</v>
       </c>
       <c r="T12">
-        <v>0.01264066783458956</v>
+        <v>0.01265086290566619</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.52156333333333</v>
+        <v>23.96074166666667</v>
       </c>
       <c r="H13">
-        <v>58.56468999999999</v>
+        <v>71.88222500000001</v>
       </c>
       <c r="I13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="J13">
-        <v>0.2924890983993922</v>
+        <v>0.3350105464235513</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N13">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P13">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q13">
-        <v>96.44756556432554</v>
+        <v>141.6578775010639</v>
       </c>
       <c r="R13">
-        <v>868.0280900789299</v>
+        <v>1274.920897509575</v>
       </c>
       <c r="S13">
-        <v>0.007004981076214405</v>
+        <v>0.006453149346523425</v>
       </c>
       <c r="T13">
-        <v>0.007004981076214407</v>
+        <v>0.006453149346523424</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H14">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I14">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J14">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>150.1098686666667</v>
+        <v>247.0944516666667</v>
       </c>
       <c r="N14">
-        <v>450.329606</v>
+        <v>741.283355</v>
       </c>
       <c r="O14">
-        <v>0.7276622610660995</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="P14">
-        <v>0.7276622610660997</v>
+        <v>0.8050739182622993</v>
       </c>
       <c r="Q14">
-        <v>74.55051513799044</v>
+        <v>206.7991121370389</v>
       </c>
       <c r="R14">
-        <v>670.954636241914</v>
+        <v>1861.19200923335</v>
       </c>
       <c r="S14">
-        <v>0.005414599577584584</v>
+        <v>0.009420623680732012</v>
       </c>
       <c r="T14">
-        <v>0.005414599577584586</v>
+        <v>0.00942062368073201</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H15">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I15">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J15">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>126.9743</v>
       </c>
       <c r="O15">
-        <v>0.2051706239258123</v>
+        <v>0.1379009747488701</v>
       </c>
       <c r="P15">
-        <v>0.2051706239258124</v>
+        <v>0.13790097474887</v>
       </c>
       <c r="Q15">
-        <v>21.02015800907778</v>
+        <v>35.42258480122222</v>
       </c>
       <c r="R15">
-        <v>189.1814220817</v>
+        <v>318.803263211</v>
       </c>
       <c r="S15">
-        <v>0.001526692853376596</v>
+        <v>0.001613657030548556</v>
       </c>
       <c r="T15">
-        <v>0.001526692853376597</v>
+        <v>0.001613657030548555</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H16">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I16">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J16">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.915377333333334</v>
+        <v>11.590146</v>
       </c>
       <c r="N16">
-        <v>26.746132</v>
+        <v>34.770438</v>
       </c>
       <c r="O16">
-        <v>0.04321756914621411</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="P16">
-        <v>0.04321756914621412</v>
+        <v>0.03776258103132013</v>
       </c>
       <c r="Q16">
-        <v>4.427730027034222</v>
+        <v>9.70006362414</v>
       </c>
       <c r="R16">
-        <v>39.849570243308</v>
+        <v>87.30057261725999</v>
       </c>
       <c r="S16">
-        <v>0.0003215857742855608</v>
+        <v>0.0004418812447397044</v>
       </c>
       <c r="T16">
-        <v>0.0003215857742855609</v>
+        <v>0.0004418812447397044</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4966396666666666</v>
+        <v>0.8369233333333334</v>
       </c>
       <c r="H17">
-        <v>1.489919</v>
+        <v>2.51077</v>
       </c>
       <c r="I17">
-        <v>0.007441088905245193</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="J17">
-        <v>0.007441088905245194</v>
+        <v>0.01170156362917063</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.940565666666667</v>
+        <v>5.912082333333333</v>
       </c>
       <c r="N17">
-        <v>14.821697</v>
+        <v>17.736247</v>
       </c>
       <c r="O17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="P17">
-        <v>0.02394954586187395</v>
+        <v>0.01926252595751047</v>
       </c>
       <c r="Q17">
-        <v>2.453680885838111</v>
+        <v>4.947959653354444</v>
       </c>
       <c r="R17">
-        <v>22.083127972543</v>
+        <v>44.53163688018999</v>
       </c>
       <c r="S17">
-        <v>0.0001782106999984511</v>
+        <v>0.0002254016731503597</v>
       </c>
       <c r="T17">
-        <v>0.0001782106999984512</v>
+        <v>0.0002254016731503597</v>
       </c>
     </row>
   </sheetData>
